--- a/TBC/DATA/datos_paises.xlsx
+++ b/TBC/DATA/datos_paises.xlsx
@@ -9,9 +9,6 @@
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -299,35 +296,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="ESQUEMA"/>
-      <sheetName val="MODELO"/>
-      <sheetName val="ASUNCIONES"/>
-      <sheetName val="DATOS_PAISES"/>
-      <sheetName val="UTILIDAD_PAISES"/>
-      <sheetName val="valores sin importancia"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-      <sheetData sheetId="1">
-        <row r="38">
-          <cell r="G38">
-            <v>0.03</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-      <sheetData sheetId="3"/>
-      <sheetData sheetId="4"/>
-      <sheetData sheetId="5"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -597,7 +565,7 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:I15"/>
+      <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1016,35 +984,27 @@
         <v>13</v>
       </c>
       <c r="B15" s="17">
-        <f>B12-B11</f>
         <v>32</v>
       </c>
       <c r="C15" s="17">
-        <f t="shared" ref="C15:I15" si="0">C12-C11</f>
         <v>34</v>
       </c>
       <c r="D15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="E15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="F15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="G15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="H15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
       <c r="I15" s="17">
-        <f t="shared" si="0"/>
         <v>32</v>
       </c>
     </row>
@@ -1053,35 +1013,27 @@
         <v>14</v>
       </c>
       <c r="B16" s="14">
-        <f>-PV([1]MODELO!$G$38, B15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="C16" s="14">
-        <f>-PV([1]MODELO!$G$38, C15-1,1)+1</f>
         <v>21.765791775502731</v>
       </c>
       <c r="D16" s="14">
-        <f>-PV([1]MODELO!$G$38, D15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="E16" s="14">
-        <f>-PV([1]MODELO!$G$38, E15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="F16" s="14">
-        <f>-PV([1]MODELO!$G$38, F15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="G16" s="14">
-        <f>-PV([1]MODELO!$G$38, G15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="H16" s="14">
-        <f>-PV([1]MODELO!$G$38, H15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
       <c r="I16" s="14">
-        <f>-PV([1]MODELO!$G$38, I15-1,1)+1</f>
         <v>21.000428494630849</v>
       </c>
     </row>
